--- a/longitudinal/data_processing_elements_longitudinal-SHR.xlsx
+++ b/longitudinal/data_processing_elements_longitudinal-SHR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/849507f40a0f895e/Documents/ProPASS/Studies/SHARE/longitudinal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maelstrom\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBAE3B2C-1A84-490D-938C-9F29BA9536DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12792701-69BC-4B2A-84AC-8176443B74D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="465" windowWidth="29040" windowHeight="15720" xr2:uid="{6AF9A584-B2B2-4246-8998-C84D9F19FCFD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6AF9A584-B2B2-4246-8998-C84D9F19FCFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -208,9 +208,6 @@
     <t>operation</t>
   </si>
   <si>
-    <t>paste(int_year, int_month, "15", sep = "-")</t>
-  </si>
-  <si>
     <t>Sex</t>
   </si>
   <si>
@@ -1473,6 +1470,9 @@
   </si>
   <si>
     <t>Mix of diabetes and high blood sugar which does not allow to generate the variable</t>
+  </si>
+  <si>
+    <t>paste(as.character(int_year), as.character(int_month), "15", sep = "-")</t>
   </si>
 </sst>
 </file>
@@ -1865,22 +1865,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACEF25D-1A0E-436B-84B2-9D221941A5BD}">
   <dimension ref="A1:AD84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" customWidth="1"/>
-    <col min="13" max="13" width="35.28515625" customWidth="1"/>
-    <col min="17" max="17" width="26.7109375" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" customWidth="1"/>
-    <col min="23" max="23" width="40.85546875" customWidth="1"/>
-    <col min="24" max="24" width="37.42578125" customWidth="1"/>
+    <col min="9" max="9" width="24.81640625" customWidth="1"/>
+    <col min="13" max="13" width="35.26953125" customWidth="1"/>
+    <col min="17" max="17" width="26.7265625" customWidth="1"/>
+    <col min="19" max="19" width="16.81640625" customWidth="1"/>
+    <col min="23" max="23" width="40.81640625" customWidth="1"/>
+    <col min="24" max="24" width="37.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D4" t="s">
         <v>45</v>
@@ -2089,10 +2089,10 @@
         <v>54</v>
       </c>
       <c r="W4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="58" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2100,28 +2100,28 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
         <v>56</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" t="s">
         <v>58</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>59</v>
       </c>
-      <c r="K5" t="s">
+      <c r="Q5" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T5" t="s">
         <v>37</v>
@@ -2130,13 +2130,13 @@
         <v>38</v>
       </c>
       <c r="V5" t="s">
+        <v>61</v>
+      </c>
+      <c r="W5" t="s">
         <v>62</v>
       </c>
-      <c r="W5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2144,25 +2144,25 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
         <v>64</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
         <v>65</v>
       </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>66</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>67</v>
-      </c>
-      <c r="K6" t="s">
-        <v>68</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>51</v>
@@ -2177,10 +2177,10 @@
         <v>54</v>
       </c>
       <c r="W6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" ht="180" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="174" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2188,31 +2188,31 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" t="s">
         <v>70</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" t="s">
         <v>72</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>73</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>74</v>
       </c>
-      <c r="M7" t="s">
+      <c r="Q7" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="T7" t="s">
         <v>37</v>
@@ -2221,13 +2221,13 @@
         <v>53</v>
       </c>
       <c r="V7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" ht="180" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="145" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2235,28 +2235,28 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" t="s">
         <v>78</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" t="s">
         <v>79</v>
       </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>80</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>81</v>
       </c>
-      <c r="M8" t="s">
+      <c r="Q8" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="T8" t="s">
         <v>37</v>
@@ -2265,13 +2265,13 @@
         <v>53</v>
       </c>
       <c r="V8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" ht="90" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="87" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2279,46 +2279,46 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" t="s">
         <v>85</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" t="s">
         <v>87</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>88</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>89</v>
       </c>
-      <c r="M9" t="s">
+      <c r="Q9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="T9" t="s">
+        <v>91</v>
+      </c>
+      <c r="U9" t="s">
         <v>92</v>
       </c>
-      <c r="U9" t="s">
-        <v>93</v>
-      </c>
       <c r="V9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2326,28 +2326,28 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" t="s">
         <v>94</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>95</v>
       </c>
-      <c r="F10" t="s">
-        <v>96</v>
-      </c>
       <c r="J10" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" t="s">
         <v>88</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>89</v>
       </c>
-      <c r="M10" t="s">
+      <c r="Q10" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="T10" t="s">
         <v>37</v>
@@ -2359,10 +2359,10 @@
         <v>54</v>
       </c>
       <c r="W10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="409.5" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="377" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2370,28 +2370,28 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" t="s">
         <v>98</v>
-      </c>
-      <c r="E11" t="s">
-        <v>99</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
       </c>
       <c r="J11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" t="s">
         <v>100</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>101</v>
       </c>
-      <c r="M11" t="s">
+      <c r="Q11" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="T11" t="s">
         <v>37</v>
@@ -2400,13 +2400,13 @@
         <v>53</v>
       </c>
       <c r="V11" t="s">
+        <v>103</v>
+      </c>
+      <c r="W11" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="W11" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" ht="180" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:30" ht="145" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2414,28 +2414,28 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" t="s">
         <v>106</v>
       </c>
-      <c r="E12" t="s">
-        <v>107</v>
-      </c>
       <c r="F12" t="s">
         <v>42</v>
       </c>
       <c r="J12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" t="s">
         <v>80</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>81</v>
       </c>
-      <c r="M12" t="s">
+      <c r="Q12" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="T12" t="s">
         <v>37</v>
@@ -2444,13 +2444,13 @@
         <v>53</v>
       </c>
       <c r="V12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" ht="150" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="145" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2458,31 +2458,31 @@
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" t="s">
         <v>109</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" t="s">
         <v>111</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>112</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>113</v>
       </c>
-      <c r="M13" t="s">
+      <c r="Q13" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="T13" t="s">
         <v>37</v>
@@ -2491,13 +2491,13 @@
         <v>53</v>
       </c>
       <c r="V13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="150" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="145" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2505,31 +2505,31 @@
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" t="s">
         <v>117</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="T14" t="s">
         <v>37</v>
@@ -2538,13 +2538,13 @@
         <v>53</v>
       </c>
       <c r="V14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="120" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="116" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2552,34 +2552,34 @@
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="S15" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="T15" t="s">
         <v>37</v>
@@ -2588,13 +2588,13 @@
         <v>53</v>
       </c>
       <c r="V15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2602,31 +2602,31 @@
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" t="s">
         <v>133</v>
       </c>
-      <c r="E16" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="J16" t="s">
         <v>134</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>135</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="Q16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T16" t="s">
         <v>37</v>
@@ -2638,10 +2638,10 @@
         <v>54</v>
       </c>
       <c r="W16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2649,31 +2649,31 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="J17" t="s">
+        <v>134</v>
+      </c>
+      <c r="K17" t="s">
         <v>135</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="Q17" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T17" t="s">
         <v>37</v>
@@ -2685,10 +2685,10 @@
         <v>54</v>
       </c>
       <c r="W17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2696,31 +2696,31 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" t="s">
         <v>142</v>
       </c>
-      <c r="E18" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="J18" t="s">
         <v>143</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>144</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="Q18" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T18" t="s">
         <v>37</v>
@@ -2732,10 +2732,10 @@
         <v>54</v>
       </c>
       <c r="W18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2743,31 +2743,31 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F19" t="s">
         <v>42</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K19" t="s">
         <v>144</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="Q19" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T19" t="s">
         <v>37</v>
@@ -2779,10 +2779,10 @@
         <v>54</v>
       </c>
       <c r="W19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2790,28 +2790,28 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" t="s">
         <v>150</v>
       </c>
-      <c r="E20" t="s">
-        <v>150</v>
-      </c>
-      <c r="F20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="J20" t="s">
         <v>151</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q20" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="K20" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="T20" t="s">
         <v>37</v>
@@ -2823,10 +2823,10 @@
         <v>54</v>
       </c>
       <c r="W20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2834,37 +2834,37 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J21" t="s">
         <v>43</v>
       </c>
       <c r="T21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2872,37 +2872,37 @@
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F22" t="s">
         <v>42</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J22" t="s">
         <v>43</v>
       </c>
       <c r="T22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2910,37 +2910,37 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" t="s">
         <v>157</v>
       </c>
-      <c r="E23" t="s">
-        <v>157</v>
-      </c>
-      <c r="F23" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" t="s">
-        <v>158</v>
-      </c>
       <c r="J23" t="s">
         <v>43</v>
       </c>
       <c r="T23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2948,13 +2948,13 @@
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F24" t="s">
         <v>34</v>
@@ -2963,19 +2963,19 @@
         <v>43</v>
       </c>
       <c r="T24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2983,37 +2983,37 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" t="s">
         <v>160</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" t="s">
         <v>161</v>
       </c>
-      <c r="F25" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" t="s">
-        <v>162</v>
-      </c>
       <c r="J25" t="s">
         <v>43</v>
       </c>
       <c r="T25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3021,37 +3021,37 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D26" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" t="s">
         <v>163</v>
       </c>
-      <c r="E26" t="s">
-        <v>164</v>
-      </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J26" t="s">
         <v>43</v>
       </c>
       <c r="T26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3059,37 +3059,37 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D27" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" t="s">
         <v>165</v>
       </c>
-      <c r="E27" t="s">
-        <v>165</v>
-      </c>
-      <c r="F27" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" t="s">
-        <v>166</v>
-      </c>
       <c r="J27" t="s">
         <v>43</v>
       </c>
       <c r="T27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3097,37 +3097,37 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D28" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" t="s">
         <v>167</v>
       </c>
-      <c r="E28" t="s">
-        <v>167</v>
-      </c>
-      <c r="F28" t="s">
-        <v>96</v>
-      </c>
-      <c r="G28" t="s">
-        <v>168</v>
-      </c>
       <c r="J28" t="s">
         <v>43</v>
       </c>
       <c r="T28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3135,37 +3135,37 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D29" t="s">
+        <v>168</v>
+      </c>
+      <c r="E29" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E29" t="s">
-        <v>169</v>
-      </c>
-      <c r="F29" t="s">
-        <v>42</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="J29" t="s">
         <v>43</v>
       </c>
       <c r="T29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3173,75 +3173,75 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
+        <v>352</v>
+      </c>
+      <c r="D30" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" t="s">
+        <v>171</v>
+      </c>
+      <c r="J30" t="s">
+        <v>43</v>
+      </c>
+      <c r="T30" t="s">
+        <v>91</v>
+      </c>
+      <c r="U30" t="s">
+        <v>210</v>
+      </c>
+      <c r="V30" t="s">
+        <v>91</v>
+      </c>
+      <c r="W30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
         <v>353</v>
       </c>
-      <c r="D30" t="s">
-        <v>171</v>
-      </c>
-      <c r="E30" t="s">
-        <v>171</v>
-      </c>
-      <c r="F30" t="s">
-        <v>96</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="D31" t="s">
         <v>172</v>
       </c>
-      <c r="J30" t="s">
-        <v>43</v>
-      </c>
-      <c r="T30" t="s">
-        <v>92</v>
-      </c>
-      <c r="U30" t="s">
-        <v>211</v>
-      </c>
-      <c r="V30" t="s">
-        <v>92</v>
-      </c>
-      <c r="W30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" t="s">
-        <v>354</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>172</v>
+      </c>
+      <c r="F31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" t="s">
         <v>173</v>
       </c>
-      <c r="E31" t="s">
-        <v>173</v>
-      </c>
-      <c r="F31" t="s">
-        <v>96</v>
-      </c>
-      <c r="G31" t="s">
-        <v>174</v>
-      </c>
       <c r="J31" t="s">
         <v>43</v>
       </c>
       <c r="T31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3249,37 +3249,37 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D32" t="s">
+        <v>174</v>
+      </c>
+      <c r="E32" t="s">
+        <v>174</v>
+      </c>
+      <c r="F32" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" t="s">
         <v>175</v>
       </c>
-      <c r="E32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F32" t="s">
-        <v>96</v>
-      </c>
-      <c r="G32" t="s">
-        <v>176</v>
-      </c>
       <c r="J32" t="s">
         <v>43</v>
       </c>
       <c r="T32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3287,37 +3287,37 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J33" t="s">
         <v>43</v>
       </c>
       <c r="T33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3325,37 +3325,37 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J34" t="s">
         <v>43</v>
       </c>
       <c r="T34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3363,37 +3363,37 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J35" t="s">
         <v>43</v>
       </c>
       <c r="T35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3401,37 +3401,37 @@
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J36" t="s">
         <v>43</v>
       </c>
       <c r="T36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W36" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3439,37 +3439,37 @@
         <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D37" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37" t="s">
+        <v>180</v>
+      </c>
+      <c r="F37" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" t="s">
         <v>181</v>
       </c>
-      <c r="E37" t="s">
-        <v>181</v>
-      </c>
-      <c r="F37" t="s">
-        <v>96</v>
-      </c>
-      <c r="G37" t="s">
-        <v>182</v>
-      </c>
       <c r="J37" t="s">
         <v>43</v>
       </c>
       <c r="T37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3477,37 +3477,37 @@
         <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D38" t="s">
+        <v>182</v>
+      </c>
+      <c r="E38" t="s">
         <v>183</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
+        <v>95</v>
+      </c>
+      <c r="G38" t="s">
         <v>184</v>
       </c>
-      <c r="F38" t="s">
-        <v>96</v>
-      </c>
-      <c r="G38" t="s">
-        <v>185</v>
-      </c>
       <c r="J38" t="s">
         <v>43</v>
       </c>
       <c r="T38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W38" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3515,37 +3515,37 @@
         <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D39" t="s">
+        <v>185</v>
+      </c>
+      <c r="E39" t="s">
         <v>186</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F39" t="s">
-        <v>42</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="J39" t="s">
         <v>43</v>
       </c>
       <c r="T39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W39" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3553,37 +3553,37 @@
         <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D40" t="s">
+        <v>188</v>
+      </c>
+      <c r="E40" t="s">
         <v>189</v>
       </c>
-      <c r="E40" t="s">
-        <v>190</v>
-      </c>
       <c r="F40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J40" t="s">
         <v>43</v>
       </c>
       <c r="T40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W40" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3591,37 +3591,37 @@
         <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E41" t="s">
         <v>191</v>
       </c>
-      <c r="E41" t="s">
-        <v>192</v>
-      </c>
       <c r="F41" t="s">
         <v>42</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J41" t="s">
         <v>43</v>
       </c>
       <c r="T41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3629,113 +3629,113 @@
         <v>30</v>
       </c>
       <c r="C42" t="s">
+        <v>364</v>
+      </c>
+      <c r="D42" t="s">
+        <v>192</v>
+      </c>
+      <c r="E42" t="s">
+        <v>192</v>
+      </c>
+      <c r="F42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G42" t="s">
+        <v>193</v>
+      </c>
+      <c r="J42" t="s">
+        <v>43</v>
+      </c>
+      <c r="T42" t="s">
+        <v>91</v>
+      </c>
+      <c r="U42" t="s">
+        <v>210</v>
+      </c>
+      <c r="V42" t="s">
+        <v>91</v>
+      </c>
+      <c r="W42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" t="s">
         <v>365</v>
       </c>
-      <c r="D42" t="s">
-        <v>193</v>
-      </c>
-      <c r="E42" t="s">
-        <v>193</v>
-      </c>
-      <c r="F42" t="s">
-        <v>96</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="D43" t="s">
         <v>194</v>
       </c>
-      <c r="J42" t="s">
-        <v>43</v>
-      </c>
-      <c r="T42" t="s">
-        <v>92</v>
-      </c>
-      <c r="U42" t="s">
-        <v>211</v>
-      </c>
-      <c r="V42" t="s">
-        <v>92</v>
-      </c>
-      <c r="W42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
+        <v>195</v>
+      </c>
+      <c r="F43" t="s">
+        <v>95</v>
+      </c>
+      <c r="G43" t="s">
+        <v>196</v>
+      </c>
+      <c r="J43" t="s">
+        <v>43</v>
+      </c>
+      <c r="T43" t="s">
+        <v>91</v>
+      </c>
+      <c r="U43" t="s">
+        <v>210</v>
+      </c>
+      <c r="V43" t="s">
+        <v>91</v>
+      </c>
+      <c r="W43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="58" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" t="s">
         <v>366</v>
       </c>
-      <c r="D43" t="s">
-        <v>195</v>
-      </c>
-      <c r="E43" t="s">
-        <v>196</v>
-      </c>
-      <c r="F43" t="s">
-        <v>96</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="D44" t="s">
         <v>197</v>
       </c>
-      <c r="J43" t="s">
-        <v>43</v>
-      </c>
-      <c r="T43" t="s">
-        <v>92</v>
-      </c>
-      <c r="U43" t="s">
-        <v>211</v>
-      </c>
-      <c r="V43" t="s">
-        <v>92</v>
-      </c>
-      <c r="W43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" t="s">
-        <v>367</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
+        <v>197</v>
+      </c>
+      <c r="F44" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E44" t="s">
-        <v>198</v>
-      </c>
-      <c r="F44" t="s">
-        <v>42</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="J44" t="s">
         <v>43</v>
       </c>
       <c r="T44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W44" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" ht="105" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3743,34 +3743,34 @@
         <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D45" t="s">
+        <v>199</v>
+      </c>
+      <c r="E45" t="s">
         <v>200</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F45" t="s">
-        <v>42</v>
-      </c>
-      <c r="I45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="Q45" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="S45" t="s">
         <v>206</v>
-      </c>
-      <c r="S45" t="s">
-        <v>207</v>
       </c>
       <c r="T45" t="s">
         <v>37</v>
@@ -3779,13 +3779,13 @@
         <v>53</v>
       </c>
       <c r="V45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3793,37 +3793,37 @@
         <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D46" t="s">
+        <v>208</v>
+      </c>
+      <c r="E46" t="s">
+        <v>208</v>
+      </c>
+      <c r="F46" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E46" t="s">
-        <v>209</v>
-      </c>
-      <c r="F46" t="s">
-        <v>42</v>
-      </c>
-      <c r="I46" s="1" t="s">
+      <c r="J46" t="s">
+        <v>43</v>
+      </c>
+      <c r="T46" t="s">
+        <v>91</v>
+      </c>
+      <c r="U46" t="s">
         <v>210</v>
       </c>
-      <c r="J46" t="s">
-        <v>43</v>
-      </c>
-      <c r="T46" t="s">
-        <v>92</v>
-      </c>
-      <c r="U46" t="s">
-        <v>211</v>
-      </c>
       <c r="V46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W46" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3831,31 +3831,31 @@
         <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D47" t="s">
+        <v>211</v>
+      </c>
+      <c r="E47" t="s">
+        <v>211</v>
+      </c>
+      <c r="F47" t="s">
+        <v>95</v>
+      </c>
+      <c r="G47" t="s">
         <v>212</v>
       </c>
-      <c r="E47" t="s">
-        <v>212</v>
-      </c>
-      <c r="F47" t="s">
-        <v>96</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="J47" t="s">
         <v>213</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>214</v>
       </c>
-      <c r="K47" t="s">
+      <c r="M47" t="s">
         <v>215</v>
       </c>
-      <c r="M47" t="s">
-        <v>216</v>
-      </c>
       <c r="Q47" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T47" t="s">
         <v>37</v>
@@ -3867,10 +3867,10 @@
         <v>54</v>
       </c>
       <c r="W47" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" ht="105" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3878,31 +3878,31 @@
         <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D48" t="s">
+        <v>217</v>
+      </c>
+      <c r="E48" t="s">
+        <v>217</v>
+      </c>
+      <c r="F48" t="s">
+        <v>42</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E48" t="s">
-        <v>218</v>
-      </c>
-      <c r="F48" t="s">
-        <v>42</v>
-      </c>
-      <c r="I48" s="1" t="s">
+      <c r="J48" t="s">
         <v>219</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>220</v>
       </c>
-      <c r="K48" t="s">
+      <c r="M48" t="s">
         <v>221</v>
       </c>
-      <c r="M48" t="s">
+      <c r="Q48" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="T48" t="s">
         <v>37</v>
@@ -3911,13 +3911,13 @@
         <v>53</v>
       </c>
       <c r="V48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W48" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3925,31 +3925,31 @@
         <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D49" t="s">
+        <v>224</v>
+      </c>
+      <c r="E49" t="s">
         <v>225</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F49" t="s">
-        <v>42</v>
-      </c>
-      <c r="I49" s="1" t="s">
+      <c r="J49" t="s">
         <v>227</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>228</v>
       </c>
-      <c r="K49" t="s">
+      <c r="Q49" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="Q49" s="1" t="s">
+      <c r="S49" t="s">
         <v>230</v>
-      </c>
-      <c r="S49" t="s">
-        <v>231</v>
       </c>
       <c r="T49" t="s">
         <v>37</v>
@@ -3958,13 +3958,13 @@
         <v>38</v>
       </c>
       <c r="V49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W49" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" ht="240" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3972,34 +3972,34 @@
         <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D50" t="s">
+        <v>232</v>
+      </c>
+      <c r="E50" t="s">
         <v>233</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J50" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F50" t="s">
-        <v>42</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J50" s="1" t="s">
+      <c r="K50" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="M50" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="Q50" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="Q50" s="1" t="s">
+      <c r="S50" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="S50" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="T50" t="s">
         <v>37</v>
@@ -4008,13 +4008,13 @@
         <v>53</v>
       </c>
       <c r="V50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" ht="120" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4022,46 +4022,46 @@
         <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D51" t="s">
+        <v>240</v>
+      </c>
+      <c r="E51" t="s">
         <v>241</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J51" t="s">
+        <v>43</v>
+      </c>
+      <c r="M51" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F51" t="s">
-        <v>42</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J51" t="s">
-        <v>43</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="Q51" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T51" t="s">
+        <v>91</v>
+      </c>
+      <c r="U51" t="s">
         <v>92</v>
       </c>
-      <c r="U51" t="s">
-        <v>93</v>
-      </c>
       <c r="V51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X51" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4069,37 +4069,37 @@
         <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D52" t="s">
+        <v>243</v>
+      </c>
+      <c r="E52" t="s">
         <v>244</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
+        <v>42</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F52" t="s">
-        <v>42</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="J52" t="s">
         <v>43</v>
       </c>
       <c r="T52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U52" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W52" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4107,31 +4107,31 @@
         <v>30</v>
       </c>
       <c r="C53" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D53" t="s">
+        <v>246</v>
+      </c>
+      <c r="E53" t="s">
+        <v>246</v>
+      </c>
+      <c r="F53" t="s">
+        <v>42</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J53" t="s">
         <v>247</v>
       </c>
-      <c r="E53" t="s">
-        <v>247</v>
-      </c>
-      <c r="F53" t="s">
-        <v>42</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>248</v>
       </c>
-      <c r="K53" t="s">
+      <c r="M53" t="s">
         <v>249</v>
       </c>
-      <c r="M53" t="s">
-        <v>250</v>
-      </c>
       <c r="Q53" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T53" t="s">
         <v>37</v>
@@ -4140,13 +4140,13 @@
         <v>38</v>
       </c>
       <c r="V53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W53" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" ht="120" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4154,31 +4154,31 @@
         <v>30</v>
       </c>
       <c r="C54" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D54" t="s">
+        <v>250</v>
+      </c>
+      <c r="E54" t="s">
+        <v>250</v>
+      </c>
+      <c r="F54" t="s">
+        <v>42</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J54" t="s">
         <v>251</v>
       </c>
-      <c r="E54" t="s">
-        <v>251</v>
-      </c>
-      <c r="F54" t="s">
-        <v>42</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>252</v>
       </c>
-      <c r="K54" t="s">
+      <c r="M54" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="M54" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="Q54" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T54" t="s">
         <v>37</v>
@@ -4187,13 +4187,13 @@
         <v>53</v>
       </c>
       <c r="V54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" ht="90" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" ht="87" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4201,34 +4201,34 @@
         <v>30</v>
       </c>
       <c r="C55" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D55" t="s">
+        <v>255</v>
+      </c>
+      <c r="E55" t="s">
+        <v>255</v>
+      </c>
+      <c r="F55" t="s">
+        <v>42</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J55" t="s">
         <v>256</v>
       </c>
-      <c r="E55" t="s">
-        <v>256</v>
-      </c>
-      <c r="F55" t="s">
-        <v>42</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>257</v>
       </c>
-      <c r="K55" t="s">
+      <c r="M55" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="Q55" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="S55" t="s">
         <v>259</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="S55" t="s">
-        <v>260</v>
       </c>
       <c r="T55" t="s">
         <v>37</v>
@@ -4237,13 +4237,13 @@
         <v>53</v>
       </c>
       <c r="V55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" ht="90" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" ht="87" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4251,34 +4251,34 @@
         <v>30</v>
       </c>
       <c r="C56" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D56" t="s">
+        <v>261</v>
+      </c>
+      <c r="E56" t="s">
+        <v>261</v>
+      </c>
+      <c r="F56" t="s">
+        <v>42</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J56" t="s">
         <v>262</v>
       </c>
-      <c r="E56" t="s">
-        <v>262</v>
-      </c>
-      <c r="F56" t="s">
-        <v>42</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>263</v>
       </c>
-      <c r="K56" t="s">
+      <c r="M56" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="M56" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="Q56" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S56" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="T56" t="s">
         <v>37</v>
@@ -4287,13 +4287,13 @@
         <v>53</v>
       </c>
       <c r="V56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" ht="90" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" ht="87" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4301,34 +4301,34 @@
         <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D57" t="s">
+        <v>266</v>
+      </c>
+      <c r="E57" t="s">
+        <v>266</v>
+      </c>
+      <c r="F57" t="s">
+        <v>42</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J57" t="s">
         <v>267</v>
       </c>
-      <c r="E57" t="s">
-        <v>267</v>
-      </c>
-      <c r="F57" t="s">
-        <v>42</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>268</v>
       </c>
-      <c r="K57" t="s">
+      <c r="M57" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="M57" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="Q57" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="T57" t="s">
         <v>37</v>
@@ -4337,13 +4337,13 @@
         <v>53</v>
       </c>
       <c r="V57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4351,37 +4351,37 @@
         <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D58" t="s">
+        <v>271</v>
+      </c>
+      <c r="E58" t="s">
         <v>272</v>
       </c>
-      <c r="E58" t="s">
-        <v>273</v>
-      </c>
       <c r="F58" t="s">
         <v>42</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J58" t="s">
         <v>43</v>
       </c>
       <c r="T58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W58" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4389,13 +4389,13 @@
         <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D59" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E59" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F59" t="s">
         <v>42</v>
@@ -4404,19 +4404,19 @@
         <v>43</v>
       </c>
       <c r="T59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U59" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4424,13 +4424,13 @@
         <v>30</v>
       </c>
       <c r="C60" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D60" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E60" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F60" t="s">
         <v>42</v>
@@ -4439,19 +4439,19 @@
         <v>43</v>
       </c>
       <c r="T60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4459,13 +4459,13 @@
         <v>30</v>
       </c>
       <c r="C61" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D61" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E61" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F61" t="s">
         <v>42</v>
@@ -4474,19 +4474,19 @@
         <v>43</v>
       </c>
       <c r="T61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U61" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W61" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4494,13 +4494,13 @@
         <v>30</v>
       </c>
       <c r="C62" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D62" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E62" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F62" t="s">
         <v>42</v>
@@ -4509,19 +4509,19 @@
         <v>43</v>
       </c>
       <c r="T62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4529,13 +4529,13 @@
         <v>30</v>
       </c>
       <c r="C63" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D63" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E63" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F63" t="s">
         <v>42</v>
@@ -4544,19 +4544,19 @@
         <v>43</v>
       </c>
       <c r="T63" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V63" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W63" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4564,13 +4564,13 @@
         <v>30</v>
       </c>
       <c r="C64" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F64" t="s">
         <v>42</v>
@@ -4579,19 +4579,19 @@
         <v>43</v>
       </c>
       <c r="T64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U64" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4599,13 +4599,13 @@
         <v>30</v>
       </c>
       <c r="C65" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D65" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E65" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F65" t="s">
         <v>42</v>
@@ -4614,19 +4614,19 @@
         <v>43</v>
       </c>
       <c r="T65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W65" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" ht="105" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4634,37 +4634,37 @@
         <v>30</v>
       </c>
       <c r="C66" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D66" t="s">
+        <v>280</v>
+      </c>
+      <c r="E66" t="s">
+        <v>280</v>
+      </c>
+      <c r="F66" t="s">
+        <v>42</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E66" t="s">
-        <v>281</v>
-      </c>
-      <c r="F66" t="s">
-        <v>42</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="J66" t="s">
         <v>43</v>
       </c>
       <c r="T66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4672,37 +4672,37 @@
         <v>30</v>
       </c>
       <c r="C67" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D67" t="s">
+        <v>282</v>
+      </c>
+      <c r="E67" t="s">
+        <v>282</v>
+      </c>
+      <c r="F67" t="s">
+        <v>95</v>
+      </c>
+      <c r="G67" t="s">
         <v>283</v>
       </c>
-      <c r="E67" t="s">
-        <v>283</v>
-      </c>
-      <c r="F67" t="s">
-        <v>96</v>
-      </c>
-      <c r="G67" t="s">
-        <v>284</v>
-      </c>
       <c r="J67" t="s">
         <v>43</v>
       </c>
       <c r="T67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U67" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" ht="135" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4710,37 +4710,37 @@
         <v>30</v>
       </c>
       <c r="C68" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D68" t="s">
+        <v>284</v>
+      </c>
+      <c r="E68" t="s">
+        <v>284</v>
+      </c>
+      <c r="F68" t="s">
+        <v>42</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E68" t="s">
-        <v>285</v>
-      </c>
-      <c r="F68" t="s">
-        <v>42</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="J68" t="s">
         <v>43</v>
       </c>
       <c r="T68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U68" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W68" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4748,37 +4748,37 @@
         <v>30</v>
       </c>
       <c r="C69" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D69" t="s">
+        <v>286</v>
+      </c>
+      <c r="E69" t="s">
+        <v>286</v>
+      </c>
+      <c r="F69" t="s">
+        <v>42</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E69" t="s">
-        <v>287</v>
-      </c>
-      <c r="F69" t="s">
-        <v>42</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="J69" t="s">
         <v>43</v>
       </c>
       <c r="T69" t="s">
+        <v>91</v>
+      </c>
+      <c r="U69" t="s">
         <v>92</v>
       </c>
-      <c r="U69" t="s">
-        <v>93</v>
-      </c>
       <c r="V69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W69" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4786,37 +4786,37 @@
         <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D70" t="s">
+        <v>288</v>
+      </c>
+      <c r="E70" t="s">
+        <v>288</v>
+      </c>
+      <c r="F70" t="s">
+        <v>42</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E70" t="s">
-        <v>289</v>
-      </c>
-      <c r="F70" t="s">
-        <v>42</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="J70" t="s">
         <v>43</v>
       </c>
       <c r="T70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U70" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W70" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4824,37 +4824,37 @@
         <v>30</v>
       </c>
       <c r="C71" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F71" t="s">
         <v>42</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J71" t="s">
         <v>43</v>
       </c>
       <c r="T71" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V71" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W71" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4862,37 +4862,37 @@
         <v>30</v>
       </c>
       <c r="C72" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F72" t="s">
         <v>42</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J72" t="s">
         <v>43</v>
       </c>
       <c r="T72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U72" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W72" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" ht="330" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4900,37 +4900,37 @@
         <v>30</v>
       </c>
       <c r="C73" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D73" t="s">
+        <v>292</v>
+      </c>
+      <c r="E73" t="s">
         <v>293</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
+        <v>42</v>
+      </c>
+      <c r="I73" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="F73" t="s">
-        <v>42</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="J73" t="s">
         <v>43</v>
       </c>
       <c r="T73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U73" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W73" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4938,37 +4938,37 @@
         <v>30</v>
       </c>
       <c r="C74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D74" t="s">
+        <v>295</v>
+      </c>
+      <c r="E74" t="s">
         <v>296</v>
       </c>
-      <c r="E74" t="s">
-        <v>297</v>
-      </c>
       <c r="F74" t="s">
         <v>42</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J74" t="s">
         <v>43</v>
       </c>
       <c r="T74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U74" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W74" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4976,37 +4976,37 @@
         <v>30</v>
       </c>
       <c r="C75" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D75" t="s">
+        <v>297</v>
+      </c>
+      <c r="E75" t="s">
         <v>298</v>
       </c>
-      <c r="E75" t="s">
-        <v>299</v>
-      </c>
       <c r="F75" t="s">
         <v>42</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J75" t="s">
         <v>43</v>
       </c>
       <c r="T75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U75" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W75" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5014,37 +5014,37 @@
         <v>30</v>
       </c>
       <c r="C76" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D76" t="s">
+        <v>299</v>
+      </c>
+      <c r="E76" t="s">
         <v>300</v>
       </c>
-      <c r="E76" t="s">
-        <v>301</v>
-      </c>
       <c r="F76" t="s">
         <v>42</v>
       </c>
       <c r="G76" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J76" t="s">
         <v>43</v>
       </c>
       <c r="T76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U76" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" ht="165" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="145" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5052,37 +5052,37 @@
         <v>30</v>
       </c>
       <c r="C77" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D77" t="s">
+        <v>301</v>
+      </c>
+      <c r="E77" t="s">
         <v>302</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
+        <v>42</v>
+      </c>
+      <c r="I77" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F77" t="s">
-        <v>42</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="J77" t="s">
         <v>43</v>
       </c>
       <c r="T77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U77" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5090,37 +5090,37 @@
         <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D78" t="s">
+        <v>304</v>
+      </c>
+      <c r="E78" t="s">
         <v>305</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
+        <v>42</v>
+      </c>
+      <c r="I78" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="F78" t="s">
-        <v>42</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="J78" t="s">
         <v>43</v>
       </c>
       <c r="T78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U78" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" ht="120" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5128,37 +5128,37 @@
         <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D79" t="s">
+        <v>307</v>
+      </c>
+      <c r="E79" t="s">
+        <v>307</v>
+      </c>
+      <c r="F79" t="s">
+        <v>42</v>
+      </c>
+      <c r="I79" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E79" t="s">
-        <v>308</v>
-      </c>
-      <c r="F79" t="s">
-        <v>42</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="J79" t="s">
         <v>43</v>
       </c>
       <c r="T79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U79" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5166,37 +5166,37 @@
         <v>30</v>
       </c>
       <c r="C80" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D80" t="s">
+        <v>309</v>
+      </c>
+      <c r="E80" t="s">
         <v>310</v>
       </c>
-      <c r="E80" t="s">
-        <v>311</v>
-      </c>
       <c r="F80" t="s">
         <v>42</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J80" t="s">
         <v>43</v>
       </c>
       <c r="T80" t="s">
+        <v>91</v>
+      </c>
+      <c r="U80" t="s">
         <v>92</v>
       </c>
-      <c r="U80" t="s">
-        <v>93</v>
-      </c>
       <c r="V80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5204,37 +5204,37 @@
         <v>30</v>
       </c>
       <c r="C81" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D81" t="s">
+        <v>311</v>
+      </c>
+      <c r="E81" t="s">
         <v>312</v>
       </c>
-      <c r="E81" t="s">
-        <v>313</v>
-      </c>
       <c r="F81" t="s">
         <v>42</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J81" t="s">
         <v>43</v>
       </c>
       <c r="T81" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U81" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V81" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W81" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" ht="105" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="87" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5242,34 +5242,34 @@
         <v>30</v>
       </c>
       <c r="C82" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D82" t="s">
+        <v>313</v>
+      </c>
+      <c r="E82" t="s">
         <v>314</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
+        <v>42</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J82" t="s">
         <v>315</v>
       </c>
-      <c r="F82" t="s">
-        <v>42</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>316</v>
       </c>
-      <c r="K82" t="s">
+      <c r="M82" t="s">
         <v>317</v>
       </c>
-      <c r="M82" t="s">
+      <c r="Q82" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="Q82" s="1" t="s">
+      <c r="S82" t="s">
         <v>319</v>
-      </c>
-      <c r="S82" t="s">
-        <v>320</v>
       </c>
       <c r="T82" t="s">
         <v>37</v>
@@ -5278,13 +5278,13 @@
         <v>53</v>
       </c>
       <c r="V82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5292,34 +5292,34 @@
         <v>30</v>
       </c>
       <c r="C83" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D83" t="s">
+        <v>321</v>
+      </c>
+      <c r="E83" t="s">
         <v>322</v>
       </c>
-      <c r="E83" t="s">
-        <v>323</v>
-      </c>
       <c r="F83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J83" t="s">
         <v>43</v>
       </c>
       <c r="T83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U83" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W83" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5327,34 +5327,34 @@
         <v>30</v>
       </c>
       <c r="C84" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D84" t="s">
+        <v>323</v>
+      </c>
+      <c r="E84" t="s">
         <v>324</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
+        <v>42</v>
+      </c>
+      <c r="G84" t="s">
         <v>325</v>
       </c>
-      <c r="F84" t="s">
-        <v>42</v>
-      </c>
-      <c r="G84" t="s">
-        <v>326</v>
-      </c>
       <c r="J84" t="s">
         <v>43</v>
       </c>
       <c r="T84" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V84" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W84" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/longitudinal/data_processing_elements_longitudinal-SHR.xlsx
+++ b/longitudinal/data_processing_elements_longitudinal-SHR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maelstrom\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12792701-69BC-4B2A-84AC-8176443B74D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30D1111-2673-4162-B4FA-A4D5B3B98FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6AF9A584-B2B2-4246-8998-C84D9F19FCFD}"/>
   </bookViews>
@@ -1472,7 +1472,7 @@
     <t>Mix of diabetes and high blood sugar which does not allow to generate the variable</t>
   </si>
   <si>
-    <t>paste(as.character(int_year), as.character(int_month), "15", sep = "-")</t>
+    <t>as.Date(paste(as.character(int_year), as.character(int_month), "15", sep = "-"))</t>
   </si>
 </sst>
 </file>
@@ -1866,7 +1866,7 @@
   <dimension ref="A1:AD84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
